--- a/target/test-classes/GoyaCreditAppData.xlsx
+++ b/target/test-classes/GoyaCreditAppData.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BA7A9A-F4E2-420D-895A-E15FB14DA115}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F1FF78-15BF-4687-BFE9-E4F7F3DAA965}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="20">
   <si>
     <t>corpName</t>
   </si>
@@ -77,16 +78,25 @@
   </si>
   <si>
     <t>NJ</t>
+  </si>
+  <si>
+    <t>07070</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,10 +143,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,11 +429,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3087C8-2589-422F-827B-DD23AE19B7AB}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>123456789</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2011231234</v>
+      </c>
+      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2014</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -436,7 +550,7 @@
     <col min="10" max="10" width="12.90625" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="7" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -476,7 +590,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -515,8 +629,8 @@
       <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="2">
-        <v>7070</v>
+      <c r="M2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -554,8 +668,8 @@
       <c r="L3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="2">
-        <v>7070</v>
+      <c r="M3" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -593,8 +707,8 @@
       <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="2">
-        <v>7070</v>
+      <c r="M4" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -632,8 +746,8 @@
       <c r="L5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="2">
-        <v>7070</v>
+      <c r="M5" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -671,8 +785,8 @@
       <c r="L6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="2">
-        <v>7070</v>
+      <c r="M6" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -710,8 +824,8 @@
       <c r="L7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="2">
-        <v>7070</v>
+      <c r="M7" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -749,8 +863,8 @@
       <c r="L8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="2">
-        <v>7070</v>
+      <c r="M8" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -788,8 +902,8 @@
       <c r="L9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="2">
-        <v>7070</v>
+      <c r="M9" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -827,8 +941,8 @@
       <c r="L10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="2">
-        <v>7070</v>
+      <c r="M10" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -866,8 +980,8 @@
       <c r="L11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="2">
-        <v>7070</v>
+      <c r="M11" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -905,8 +1019,8 @@
       <c r="L12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="2">
-        <v>7070</v>
+      <c r="M12" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -944,8 +1058,8 @@
         <v>17</v>
       </c>
       <c r="L13" s="2"/>
-      <c r="M13" s="2">
-        <v>7070</v>
+      <c r="M13" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -985,9 +1099,10 @@
       <c r="L14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>